--- a/src/main/java/lomt/pearson/fileupload/intermediary/reingestion/Intermediary_Reingestion_Template.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/intermediary/reingestion/Intermediary_Reingestion_Template.xlsx
@@ -69,7 +69,7 @@
     <t>ELA.CP.1.009</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:b2b4cd13-b577-409e-9692-32aa1bbb332a</t>
+    <t>urn:pearson:educationalgoal:f2f7e13f-5f3f-47a0-bf37-9a2ac2d2c463</t>
   </si>
   <si>
     <t>New Intermediary Statement added-1</t>
@@ -78,7 +78,7 @@
     <t/>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:25f2b999-95fd-46df-9259-119a4ab677bd</t>
+    <t>urn:pearson:educationalgoal:46801c52-6129-4e72-9056-17d4b0dd33b4</t>
   </si>
   <si>
     <t>Cognitive process exercised is analyzing.</t>
@@ -93,7 +93,7 @@
     <t>ELA.CP.2</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:ba9f39b0-09d0-4d45-b492-0418f08e2842</t>
+    <t>urn:pearson:educationalgoal:1785aaab-0e9a-4f36-9b0d-2bb81679f9fa</t>
   </si>
   <si>
     <t>Cognitive process exercised is anticipation.</t>
@@ -102,7 +102,7 @@
     <t>ELA.CP.3</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:53a19dac-4314-4d58-9e62-14738b761089</t>
+    <t>urn:pearson:educationalgoal:59e5ebfe-c1c4-466f-bf1c-2ea265a0a99b</t>
   </si>
   <si>
     <t>Cognitive process exercised is applying.</t>
@@ -111,7 +111,7 @@
     <t>ELA.CP.4</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:cb5a2343-6b0a-46df-b747-bb1d02db092b</t>
+    <t>urn:pearson:educationalgoal:2e0a0db9-8718-44fd-b516-8474095bd340</t>
   </si>
   <si>
     <t>Cognitive process exercised is teamwork.</t>
@@ -120,7 +120,7 @@
     <t>ELA.CP.32</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:9a9df59f-1344-4012-aac8-1e2f48a79042</t>
+    <t>urn:pearson:educationalgoal:61f047d4-7896-4cc4-bc44-cca510f00ae0</t>
   </si>
   <si>
     <t>A clause contains a subject and a verb that agree in number.</t>
@@ -135,7 +135,7 @@
     <t>ELA.LA.1</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:c64a603d-8b1a-4cb1-a7c5-5966da45bbdb</t>
+    <t>urn:pearson:educationalgoal:f2229a8c-5a72-4e9f-8997-56edf0eeae3f</t>
   </si>
   <si>
     <t>A colon is used to introduce a list.</t>
@@ -144,7 +144,7 @@
     <t>ELA.LA.2</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:c1d6df3b-5c57-485e-b947-f722ca69120a</t>
+    <t>urn:pearson:educationalgoal:270d6753-eb6a-4d6c-a475-50f902d75b38</t>
   </si>
   <si>
     <t>A colon is used to introduce a quotation.</t>
@@ -153,7 +153,7 @@
     <t>ELA.LA.3</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:4b169191-03dd-44a6-ae81-2c639d99ad75</t>
+    <t>urn:pearson:educationalgoal:3b9ceb1b-aed1-4cee-bf4d-9dee51fcf22d</t>
   </si>
   <si>
     <t>Acquire and use grade-appropriate conversational words and phrases.</t>
@@ -162,7 +162,7 @@
     <t>ELA.LA.20</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:d08b5821-02e1-4275-bff7-2507c472a578</t>
+    <t>urn:pearson:educationalgoal:a3741ead-6e3a-44c7-a1c4-605ce233c575</t>
   </si>
   <si>
     <t>Acquire and use grade-appropriate domain-specific words and phrases.</t>
@@ -171,7 +171,7 @@
     <t>ELA.LA.21</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:fd5f7b56-42d5-45e3-a3ad-9ea19982fb0a</t>
+    <t>urn:pearson:educationalgoal:8322228a-3ca8-4f18-a461-7d2799845572</t>
   </si>
   <si>
     <t>Acquire and use grade-appropriate general academic words and phrases.</t>
@@ -180,7 +180,7 @@
     <t>ELA.LA.22</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:74bafd42-484f-4899-927c-717e725ebb83</t>
+    <t>urn:pearson:educationalgoal:2bbec093-1248-48e2-84fc-8b1975e5f822</t>
   </si>
   <si>
     <t>Acquire general academic words and phrases, sufficient for interacting at the college and career readiness level.</t>
@@ -189,7 +189,7 @@
     <t>ELA.LA.23</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:c34e6b4d-52b1-423a-bda8-7211718e4f70</t>
+    <t>urn:pearson:educationalgoal:29a42d72-25c5-4549-85a2-221dbd5f7b04</t>
   </si>
   <si>
     <t>Alphabetize a series of words to the first letter to find them in a dictionary or glossary.</t>
@@ -198,7 +198,7 @@
     <t>ELA.LA.34</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:c5549568-4825-495b-a629-05f394ae0f8f</t>
+    <t>urn:pearson:educationalgoal:0adb38cf-3712-484b-a491-09de0557122a</t>
   </si>
   <si>
     <t>Alphabetize a series of words to the second letter to find them in a dictionary.</t>
@@ -207,7 +207,7 @@
     <t>ELA.LA.35</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:e6866ee1-83b8-48b1-bfae-605bd30df1c7</t>
+    <t>urn:pearson:educationalgoal:9644c0d8-c845-4717-ab11-bda465a71f87</t>
   </si>
   <si>
     <t>Alphabetize a series of words to the third letter to find them in a dictionary.</t>
@@ -216,7 +216,7 @@
     <t>ELA.LA.36</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:bbe5ff85-6df8-4413-8c39-87bb13b4c15a</t>
+    <t>urn:pearson:educationalgoal:20a31678-2a26-4740-be5f-ab8aa269cf2c</t>
   </si>
   <si>
     <t>An apostrophe in a contraction represents omitted letters.</t>
@@ -225,7 +225,7 @@
     <t>ELA.LA.37</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:134909ba-ad01-4c7a-b865-da3b2917c3f9</t>
+    <t>urn:pearson:educationalgoal:eea8794f-cf3b-4550-a5e9-f3e6b86a8353</t>
   </si>
   <si>
     <t>Analyze nuances in the meaning of words with similar denotations.</t>
@@ -234,7 +234,7 @@
     <t>ELA.LA.48</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:52bb5846-dd7a-4312-9c79-10d21b439ed9</t>
+    <t>urn:pearson:educationalgoal:1154c0af-ca50-4772-8d77-a84fe55eb47e</t>
   </si>
   <si>
     <t>Analyze textual context to distinguish between the denotative and connotative meanings of words.</t>
@@ -243,7 +243,7 @@
     <t>ELA.LA.49</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:4cabffff-7169-48cb-83a7-b0200f225de3</t>
+    <t>urn:pearson:educationalgoal:1ae388d7-7eb9-4544-b7aa-89ba38e116f9</t>
   </si>
   <si>
     <t>Analyze textual context to draw conclusions about the nuance in word meanings.</t>
@@ -252,7 +252,7 @@
     <t>ELA.LA.50</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:cf12795c-f613-4a05-a670-e941d1961602</t>
+    <t>urn:pearson:educationalgoal:8db69d7e-5958-4dae-abeb-c7c6ae4730d6</t>
   </si>
   <si>
     <t>Analyze the role of figures of speech in the text.</t>
@@ -261,7 +261,7 @@
     <t>ELA.LA.51</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:ac441d46-74dc-4d1a-8c18-99272a807e93</t>
+    <t>urn:pearson:educationalgoal:62ec9b2c-f528-4620-aa7a-2e6bd48af694</t>
   </si>
   <si>
     <t>Apply an understanding of syntax when reading complex texts.</t>
@@ -270,7 +270,7 @@
     <t>ELA.LA.54</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:3ee878cf-b67a-4475-9958-19889ae0210c</t>
+    <t>urn:pearson:educationalgoal:c0c82182-dc74-4b89-bcd8-e1b8ce64d5b0</t>
   </si>
   <si>
     <t>Apply playful uses of language (e.g., tongue twisters, palindromes, riddles).</t>
@@ -279,7 +279,7 @@
     <t>ELA.LA.55</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:3e3d9f0b-0aef-4ecc-8bdf-1dc60674b864</t>
+    <t>urn:pearson:educationalgoal:ecac3fbf-1b41-430c-8ce8-93928c5d1815</t>
   </si>
   <si>
     <t>Ask for the meaning of unknown words.</t>
@@ -288,7 +288,7 @@
     <t>ELA.LA.57</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:b218c1b5-7957-4c24-a740-5fb9746fe607</t>
+    <t>urn:pearson:educationalgoal:f12ec6c3-e7f3-448a-8fe6-9179b2538928</t>
   </si>
   <si>
     <t>Ask questions with appropriate subject-verb inversion.</t>
@@ -297,7 +297,7 @@
     <t>ELA.LA.58</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:74af020b-9fcf-4907-a57d-d07d43ea1a66</t>
+    <t>urn:pearson:educationalgoal:5c91fd10-3a56-4536-9ef4-55ce13dd6930</t>
   </si>
   <si>
     <t>Choose language that expresses ideas precisely and concisely.</t>
@@ -306,7 +306,7 @@
     <t>ELA.LA.66</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:16a730f6-0aa3-472b-88fe-30b44dc0effa</t>
+    <t>urn:pearson:educationalgoal:1d63ec42-130e-4a08-9fc2-8ee09cb9777e</t>
   </si>
   <si>
     <t>Choose phrases for effect.</t>
@@ -315,7 +315,7 @@
     <t>ELA.LA.67</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:4cdc3c25-1a0e-43c7-bb36-831376b7d345</t>
+    <t>urn:pearson:educationalgoal:94731779-c250-4d85-90ac-fbf359a895fd</t>
   </si>
   <si>
     <t>Choose punctuation for effect.</t>
@@ -324,7 +324,7 @@
     <t>ELA.LA.68</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:9abfd8ce-3754-49e8-8d74-b88c2d6237f0</t>
+    <t>urn:pearson:educationalgoal:cf37fb96-92f7-4d68-8597-d24137ce8f06</t>
   </si>
   <si>
     <t>Choose words and phrases to convey ideas precisely.</t>
@@ -333,7 +333,7 @@
     <t>ELA.LA.70</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:ee08787c-de2b-4dfa-ad1c-82c57a258ea7</t>
+    <t>urn:pearson:educationalgoal:ce4ad1b3-0756-407e-83c1-a067fb43b9da</t>
   </si>
   <si>
     <t>Choose words for effect.</t>
@@ -342,7 +342,7 @@
     <t>ELA.LA.71</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:721b97a3-d5f1-4e7f-8654-57f225205a89</t>
+    <t>urn:pearson:educationalgoal:dc5ae4d4-148b-4c41-a903-139f3b6c44c1</t>
   </si>
   <si>
     <t>Compare and contrast the type of English that is used in stories, dramas, or poems.</t>
@@ -351,7 +351,7 @@
     <t>ELA.LA.84</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:ecea1f49-2d5e-48f4-baf9-70a56acc57a0</t>
+    <t>urn:pearson:educationalgoal:bb80f379-e896-4bde-9842-9a6adec364de</t>
   </si>
   <si>
     <t>Compare and contrast written and spoken English.</t>
@@ -360,7 +360,7 @@
     <t>ELA.LA.85</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:20f15529-8ae8-4b32-8baa-4a1a4c46c8a8</t>
+    <t>urn:pearson:educationalgoal:46acc5f5-3d99-4cad-a745-a33022ab8550</t>
   </si>
   <si>
     <t>Compare complicated words to words with known letter patterns.</t>
@@ -369,7 +369,7 @@
     <t>ELA.LA.86</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:b79d84e3-0e6c-401d-b9a7-c4cea62faa90</t>
+    <t>urn:pearson:educationalgoal:838ab94c-26d8-4d9c-8241-2ddd7c872b39</t>
   </si>
   <si>
     <t>Compare formal and informal uses of language.</t>
@@ -378,7 +378,7 @@
     <t>ELA.LA.87</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:22e4dd16-330f-49b9-abc6-8e81bc4bfa1a</t>
+    <t>urn:pearson:educationalgoal:e7d639c9-655c-41eb-a96b-f7bffbaa1def</t>
   </si>
   <si>
     <t>Contractions represent two words.</t>
@@ -387,7 +387,7 @@
     <t>ELA.LA.92</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:1be44e96-f822-4db5-93c5-7bf4c3d336b8</t>
+    <t>urn:pearson:educationalgoal:2f15419d-5387-4050-a7f0-4fda6e968d00</t>
   </si>
   <si>
     <t>Correct dangling modifiers.</t>
@@ -396,7 +396,7 @@
     <t>ELA.LA.94</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:c45132f5-1fd8-45ef-bcd0-33287552d82f</t>
+    <t>urn:pearson:educationalgoal:42d76df0-ac4e-4128-8f45-cd43c1ecb72c</t>
   </si>
   <si>
     <t>Correct inappropriate shifts in pronoun number.</t>
@@ -405,7 +405,7 @@
     <t>ELA.LA.95</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:f5f11f8d-1a56-4c7b-9812-5fdf9c9582f1</t>
+    <t>urn:pearson:educationalgoal:7b2e7f34-c0ee-4a5d-8fe9-4c62c99cdd99</t>
   </si>
   <si>
     <t>Correct inappropriate shifts in pronoun person.</t>
@@ -414,7 +414,7 @@
     <t>ELA.LA.96</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:68ca65ac-6c42-44a8-b413-c36efffa3969</t>
+    <t>urn:pearson:educationalgoal:33b9a12f-39ab-466d-97fa-01b0da781110</t>
   </si>
   <si>
     <t>Correct inappropriate shifts in verb mood.</t>
@@ -423,7 +423,7 @@
     <t>ELA.LA.97</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:a162bf84-27b5-434d-b82d-8f8cc2f92b7b</t>
+    <t>urn:pearson:educationalgoal:4f09975a-af6f-41ad-8e3f-76f1e6b73f32</t>
   </si>
   <si>
     <t>Correct inappropriate shifts in verb tense.</t>
@@ -432,7 +432,7 @@
     <t>ELA.LA.98</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:d959a806-5f19-47a6-b0b4-b7063b893e2f</t>
+    <t>urn:pearson:educationalgoal:710bae59-bb70-4141-bf4a-e805fc0cc5e8</t>
   </si>
   <si>
     <t>Correct inappropriate shifts in verb voice.</t>
@@ -441,7 +441,7 @@
     <t>ELA.LA.99</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:eedb6c59-3fdd-4691-9d1c-65b381b7ab90</t>
+    <t>urn:pearson:educationalgoal:85cd06b1-29e5-4dfe-a182-90ec68c5cf88</t>
   </si>
   <si>
     <t>Correct misplaced modifiers.</t>
@@ -450,7 +450,7 @@
     <t>ELA.LA.100</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:7d5cfdf4-711b-42b2-9db5-ae0646c2f499</t>
+    <t>urn:pearson:educationalgoal:06fe7e80-90ac-4301-8f35-84616ada6697</t>
   </si>
   <si>
     <t>Correct vague pronouns.</t>
@@ -459,7 +459,7 @@
     <t>ELA.LA.101</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:8dabbd15-e932-4d8b-8bb3-e80fd3c94ebe</t>
+    <t>urn:pearson:educationalgoal:8fee8641-e78a-41c6-bfe0-fe5c600d3984</t>
   </si>
   <si>
     <t>Correctly place clauses within a sentence.</t>
@@ -468,7 +468,7 @@
     <t>ELA.LA.103</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:b44e9047-8912-4229-8c98-6a3183200493</t>
+    <t>urn:pearson:educationalgoal:688b3de7-c082-4751-abcf-275d0908cb5e</t>
   </si>
   <si>
     <t>Correctly place phrases within a sentence.</t>
@@ -477,7 +477,7 @@
     <t>ELA.LA.104</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:3fdd0370-f884-4a52-a4b3-02c4db20ed70</t>
+    <t>urn:pearson:educationalgoal:08494b50-9c66-4571-8573-ff2c3f17d518</t>
   </si>
   <si>
     <t>Correctly use an adjective or adverb depending on what is being modified.</t>
@@ -486,7 +486,7 @@
     <t>ELA.LA.105</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:1a55f1fa-88f9-4bd2-a56b-de449167dcba</t>
+    <t>urn:pearson:educationalgoal:c940f2bc-874a-45c4-ade0-b8ad5b1c012f</t>
   </si>
   <si>
     <t>Correctly use comparative adjectives or comparative adverbs depending on what is being modified.</t>
@@ -495,7 +495,7 @@
     <t>ELA.LA.106</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:bb7db784-4c49-4dff-8796-3a6a70a1f028</t>
+    <t>urn:pearson:educationalgoal:699a1054-3ce2-4d19-8d9e-b6164e154c28</t>
   </si>
   <si>
     <t>Correctly use frequently confused words.</t>
@@ -504,7 +504,7 @@
     <t>ELA.LA.107</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:c940d8ef-94b2-4af9-9249-759df7e5109f</t>
+    <t>urn:pearson:educationalgoal:0e4521a0-adf2-42c8-967a-fbee0442d15e</t>
   </si>
   <si>
     <t>Correctly use patterns of word changes that indicate different meanings.</t>
@@ -513,7 +513,7 @@
     <t>ELA.LA.108</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:02e46c8c-6e09-4027-8199-b33af86a1688</t>
+    <t>urn:pearson:educationalgoal:fcdc967c-2220-4e46-8bc8-a94f529b2834</t>
   </si>
   <si>
     <t>Correctly use patterns of word changes that indicate different parts of speech.</t>
@@ -522,7 +522,7 @@
     <t>ELA.LA.109</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:84f77366-ae0f-4f84-9e17-65cf917be79e</t>
+    <t>urn:pearson:educationalgoal:1652c492-61db-40a7-9f8a-735519c14ca1</t>
   </si>
   <si>
     <t>Correctly use superlative adjectives or superlative adverbs depending on what is being modified.</t>
@@ -531,7 +531,7 @@
     <t>ELA.LA.110</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:9c58da1c-ace4-4237-94bb-62fb93f27f56</t>
+    <t>urn:pearson:educationalgoal:6e3a48bb-2137-4ac2-8ef5-f484d096f17c</t>
   </si>
   <si>
     <t>Demonstrate awareness of variant spellings of words (e.g., color vs. colour).</t>
@@ -540,7 +540,7 @@
     <t>ELA.LA.127</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:673f2c31-ed8c-435c-9203-61cf4f4baee3</t>
+    <t>urn:pearson:educationalgoal:34f23440-ff2e-4ce6-a1c1-c64b09477c3e</t>
   </si>
   <si>
     <t>Describe the origins of foreign words and phrases used in written English.</t>
@@ -549,7 +549,7 @@
     <t>ELA.LA.128</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:726c3531-97c1-4ac6-9908-3e49946e90a5</t>
+    <t>urn:pearson:educationalgoal:0b0d891e-725a-4189-8c3b-dba9d84a9b66</t>
   </si>
   <si>
     <t>Determine the meaning of a new word formed when adding a prefix to a known word.</t>
@@ -558,7 +558,7 @@
     <t>ELA.LA.129</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:d4bf09a3-fa50-4b78-9805-e84c38fabff0</t>
+    <t>urn:pearson:educationalgoal:34b8da05-e6e4-4cee-8a62-9641021318ab</t>
   </si>
   <si>
     <t>Determine the meaning of a new word formed when adding a suffix to a known word.</t>
@@ -567,7 +567,7 @@
     <t>ELA.LA.130</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:7c524685-1d39-4e35-814a-8a74af90febc</t>
+    <t>urn:pearson:educationalgoal:e84ee041-b905-4c68-b809-7800aa0ed71f</t>
   </si>
   <si>
     <t>Determine the meaning of a word or phrase using connotations.</t>
@@ -576,7 +576,7 @@
     <t>ELA.LA.131</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:81fe86dc-efca-4b72-8128-0048629512bd</t>
+    <t>urn:pearson:educationalgoal:30f2a4a5-0dbc-4ebe-96cd-5f323f10d962</t>
   </si>
   <si>
     <t>Determine the meaning of a word or phrase using sentence structure.</t>
@@ -585,7 +585,7 @@
     <t>ELA.LA.132</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:485b2339-7592-4cc9-a283-14886422dd26</t>
+    <t>urn:pearson:educationalgoal:fd60321e-cde6-4ef7-85e3-f7e1a514f6bb</t>
   </si>
   <si>
     <t>Determine the meaning of a word using phonetic strategies.</t>
@@ -594,7 +594,7 @@
     <t>ELA.LA.133</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:59d02061-c9d8-4427-b0db-7b53269f0791</t>
+    <t>urn:pearson:educationalgoal:bcdaa205-c8d0-46f3-90e7-9123ce99fabb</t>
   </si>
   <si>
     <t>Determine the meaning of technical vocabulary using affixes.</t>
@@ -603,7 +603,7 @@
     <t>ELA.LA.134</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:46cac631-c420-49f2-8e62-3183cb90c605</t>
+    <t>urn:pearson:educationalgoal:1bc4df07-0607-428b-81f6-a6b52d08316d</t>
   </si>
   <si>
     <t>Determine when it is appropriate to use formal English or informal English.</t>
@@ -612,7 +612,7 @@
     <t>ELA.LA.135</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:0c51197b-9924-4277-84e1-b1289cc2317a</t>
+    <t>urn:pearson:educationalgoal:cf3512b9-337b-4709-9cb0-9e51d5c82529</t>
   </si>
   <si>
     <t>Develop vocabulary by listening to texts read aloud.</t>
@@ -621,7 +621,7 @@
     <t>ELA.LA.136</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:62f7e0d7-02f3-4621-8e2a-fff7ccf0fc5f</t>
+    <t>urn:pearson:educationalgoal:5ec8d0c9-d38f-4186-a055-2a3133396df2</t>
   </si>
   <si>
     <t>Develop vocabulary by reading texts.</t>
@@ -630,7 +630,7 @@
     <t>ELA.LA.137</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:13766df0-0897-433d-8fd5-093d23375f74</t>
+    <t>urn:pearson:educationalgoal:ff2bcd19-f552-4c49-9abe-6141bb8a9f56</t>
   </si>
   <si>
     <t>Differentiate among multiple meanings of words using connotations.</t>
@@ -639,7 +639,7 @@
     <t>ELA.LA.142</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:8c9b0a45-0f75-4bda-a9a0-f223f4e7dc04</t>
+    <t>urn:pearson:educationalgoal:b83d8183-cea8-4b4d-a293-98a8eaf089ab</t>
   </si>
   <si>
     <t>Differentiate among multiple meanings of words using context clues.</t>
@@ -648,7 +648,7 @@
     <t>ELA.LA.143</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:6842c459-bd3d-4067-aec7-03979f22f2cf</t>
+    <t>urn:pearson:educationalgoal:7b1fdc6a-e61d-4a17-91a8-0b7360a630f5</t>
   </si>
   <si>
     <t>Differentiate among multiple meanings of words using sentence structure.</t>
@@ -657,7 +657,7 @@
     <t>ELA.LA.144</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:1a2cb4df-8ed4-481e-9b26-16e393cb58b0</t>
+    <t>urn:pearson:educationalgoal:a84c5ff1-2e67-40d8-9588-d8beb22c9975</t>
   </si>
   <si>
     <t>Differentiate between active and passive voice.</t>
@@ -666,7 +666,7 @@
     <t>ELA.LA.145</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:d46881b2-694b-44cb-841b-e542e646131a</t>
+    <t>urn:pearson:educationalgoal:dd6f4bb5-a733-4de7-bc06-5afafc9af9f8</t>
   </si>
   <si>
     <t>Differentiate between commonly confused words.</t>
@@ -675,7 +675,7 @@
     <t>ELA.LA.146</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:554a128c-9c15-4c2c-b3e8-0f07d29c1570</t>
+    <t>urn:pearson:educationalgoal:09dfd0d3-b379-491e-8312-9732262fe8be</t>
   </si>
   <si>
     <t>Differentiate between main and subordinate clause.</t>
@@ -684,7 +684,7 @@
     <t>ELA.LA.147</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:6c3d1fc4-00c4-4acd-95bf-092112256fff</t>
+    <t>urn:pearson:educationalgoal:c47c9c1d-bca4-4821-9de9-32ab1671ef24</t>
   </si>
   <si>
     <t>Discuss the meanings of words.</t>
@@ -693,7 +693,7 @@
     <t>ELA.LA.162</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:ba5d41f6-4f93-4efd-94cd-301a8fef38b6</t>
+    <t>urn:pearson:educationalgoal:184a1e23-a553-4f55-8ce9-f9cb10813634</t>
   </si>
   <si>
     <t>Discuss word and phrase choices in texts that capture the reader's interest.</t>
@@ -702,7 +702,7 @@
     <t>ELA.LA.163</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:76f16181-775d-4c0b-8b36-143d7f9aa875</t>
+    <t>urn:pearson:educationalgoal:9938c303-b635-497d-b4eb-14f3746be0b9</t>
   </si>
   <si>
     <t>Every syllable has one vowel sound.</t>
@@ -711,7 +711,7 @@
     <t>ELA.LA.184</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:cf1b26fd-bcc2-48a2-b2e5-07b7316cbbe4</t>
+    <t>urn:pearson:educationalgoal:c944864f-7819-4016-942e-b137b5c71cdd</t>
   </si>
   <si>
     <t>Letters are combined to represent spoken words.</t>
@@ -720,7 +720,7 @@
     <t>ELA.LA.355</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:9ea64a82-01cb-4602-8a85-09316af01165</t>
+    <t>urn:pearson:educationalgoal:9d7432fe-c5fb-47f4-86c6-0c9ee5406e94</t>
   </si>
   <si>
     <t>Spoken syllables are made up of sounds (phonemes).</t>
@@ -729,7 +729,7 @@
     <t>ELA.LA.491</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:e3a195ef-9e82-4d3e-83dd-8d8a617ccc11</t>
+    <t>urn:pearson:educationalgoal:cfeaae95-ad72-47cc-bbb0-c2dfdecdf584</t>
   </si>
   <si>
     <t>Words are combined to make a sentence.</t>
@@ -738,7 +738,7 @@
     <t>ELA.LA.767</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:0db26f4f-845f-4b60-b690-26a029c953c1</t>
+    <t>urn:pearson:educationalgoal:ec977363-c6af-4bb4-abff-2df8ff78cc5b</t>
   </si>
   <si>
     <t>Comprehension strategies include determining importance.</t>
@@ -750,7 +750,7 @@
     <t>ELA.RD.83</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:16c282bf-e76d-4e07-9487-46520fdc8aa9</t>
+    <t>urn:pearson:educationalgoal:bd5a3205-c6bd-467c-b204-0c40f6381e6b</t>
   </si>
   <si>
     <t>Comprehension strategies include making inferences.</t>
@@ -759,7 +759,7 @@
     <t>ELA.RD.84</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:d24911fd-c1ee-4862-afd2-596c38868e6b</t>
+    <t>urn:pearson:educationalgoal:e2a37c85-a7eb-4653-8ca4-018607a3e90c</t>
   </si>
   <si>
     <t>Comprehension strategies include making predictions.</t>
@@ -768,7 +768,7 @@
     <t>ELA.RD.85</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:754f24d9-5a4a-4144-906b-404876363cd7</t>
+    <t>urn:pearson:educationalgoal:fae6a271-7e15-403d-ae16-829a3411a10b</t>
   </si>
   <si>
     <t>Comprehension strategies include monitoring for meaning and clarification.</t>
@@ -777,7 +777,7 @@
     <t>ELA.RD.86</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:2f525c2a-0450-4942-ab3d-21081e9335aa</t>
+    <t>urn:pearson:educationalgoal:2a3974fa-c6f7-4a38-970a-aaddd33de22b</t>
   </si>
   <si>
     <t>Comprehension strategies include questioning the author.</t>
@@ -786,7 +786,7 @@
     <t>ELA.RD.87</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:f995b04f-bb83-42e9-b268-e0822a63fbff</t>
+    <t>urn:pearson:educationalgoal:3d90d3f3-c340-4ecd-a15c-b9a917f53ab1</t>
   </si>
   <si>
     <t>In print, words are separated by spaces.</t>
@@ -795,7 +795,7 @@
     <t>ELA.RD.159</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:711396bb-cd9b-48f5-a8aa-1ea486592100</t>
+    <t>urn:pearson:educationalgoal:0f5f34a1-73b8-4deb-9591-85196ad62e98</t>
   </si>
   <si>
     <t>Read at a rate appropriate to support comprehension.</t>
@@ -804,7 +804,7 @@
     <t>ELA.RD.169</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:e91e3afa-eeab-4ffb-b2c9-b2f118c074a0</t>
+    <t>urn:pearson:educationalgoal:aaf03848-1048-476f-a370-ffe9d7958924</t>
   </si>
   <si>
     <t>Read with accuracy that supports comprehension.</t>
@@ -813,7 +813,7 @@
     <t>ELA.RD.174</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:252720a6-b848-434e-8338-43ca8fb77f8e</t>
+    <t>urn:pearson:educationalgoal:9f866e40-e384-463a-8e7c-16d9727ef919</t>
   </si>
   <si>
     <t>Read with expression that supports comprehension.</t>
@@ -822,7 +822,7 @@
     <t>ELA.RD.175</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:cc28aca1-263c-4641-825d-da53b46c7994</t>
+    <t>urn:pearson:educationalgoal:716540ac-c231-4ddc-9c74-2ea712639a57</t>
   </si>
   <si>
     <t>Spoken words are made up of syllables.</t>
@@ -831,7 +831,7 @@
     <t>ELA.RD.185</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:04be9547-35ca-4740-878b-7ab4f1e615b8</t>
+    <t>urn:pearson:educationalgoal:bd88b2de-eaef-4e63-a119-fd6147044e05</t>
   </si>
   <si>
     <t>Rich text environments form the foundation for learning.</t>
@@ -840,7 +840,7 @@
     <t>ELA.RE.64</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:8ab8d014-3d1b-4e0a-82c5-fe097a0c6859</t>
+    <t>urn:pearson:educationalgoal:7581fe9d-9d49-4401-8f3b-00d60b1bd298</t>
   </si>
   <si>
     <t>Rich text environments influence personal writing.</t>
@@ -849,7 +849,7 @@
     <t>ELA.RE.65</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:707a0b6f-21e8-49a9-ae20-48db8ee7707f</t>
+    <t>urn:pearson:educationalgoal:a8129342-0184-489f-a554-a646dbd361b2</t>
   </si>
   <si>
     <t>There are different ways of learning in English.</t>
@@ -858,7 +858,7 @@
     <t>ELA.RE.70</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:889424d0-9bf9-4721-94ea-b15bba442a3e</t>
+    <t>urn:pearson:educationalgoal:7a1abe4a-27c8-4bbd-9d8a-2ab987ad0292</t>
   </si>
   <si>
     <t>Languages have different written communication systems.</t>
@@ -870,7 +870,7 @@
     <t>ELA.SL.1</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:75c960a6-cffc-4a83-b9aa-f29d8b7cc7bc</t>
+    <t>urn:pearson:educationalgoal:3696d39f-1d58-4434-9e35-b72334aa7268</t>
   </si>
   <si>
     <t>Clarify ideas as an individual.</t>
@@ -879,7 +879,7 @@
     <t>ELA.SL.139</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:7c82b1ab-c405-41bb-8db5-d903371ac959</t>
+    <t>urn:pearson:educationalgoal:01388911-1f2e-44ea-b9c1-096a89103d0d</t>
   </si>
   <si>
     <t>Different forms of communication technologies are available for people with hearing and visual impairments, and other disabilities.</t>
@@ -888,7 +888,7 @@
     <t>ELA.SL.251</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:9f10d09b-6279-40ce-89c9-fc7760ecca5d</t>
+    <t>urn:pearson:educationalgoal:5793e3de-a67a-4971-a7cb-9c461bebf839</t>
   </si>
   <si>
     <t>Different systems of communication cater to different needs and purposes.</t>
@@ -897,7 +897,7 @@
     <t>ELA.SL.252</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:8b7410bc-ff96-4c30-85a8-fc372dde4ff8</t>
+    <t>urn:pearson:educationalgoal:91be3e74-2519-442a-9ee9-bdd5a266a3bc</t>
   </si>
   <si>
     <t>Expectations for using spoken language vary according to audience and purpose.</t>
@@ -906,7 +906,7 @@
     <t>ELA.SL.329</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:44eae36c-9870-4b5d-b3cc-1cbadce95309</t>
+    <t>urn:pearson:educationalgoal:8d6815b4-250c-4cbb-b0c2-cc4314df9f1a</t>
   </si>
   <si>
     <t>Experiment with word patterns in poems.</t>
@@ -915,7 +915,7 @@
     <t>ELA.SL.340</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:914ca09a-44e9-4831-9a70-ca434fc94817</t>
+    <t>urn:pearson:educationalgoal:10741304-71fb-445c-8f22-0db8fad3a145</t>
   </si>
   <si>
     <t>Experiment with word patterns in rhymes.</t>
@@ -924,7 +924,7 @@
     <t>ELA.SL.341</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:06d5124f-ca34-4ef7-a7ee-4518654e7fe8</t>
+    <t>urn:pearson:educationalgoal:b035a9bb-36dd-47e3-b466-89837b9fce78</t>
   </si>
   <si>
     <t>Experiment with word patterns in songs.</t>
@@ -933,7 +933,7 @@
     <t>ELA.SL.342</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:07a6bdb8-bddc-41cc-a0a9-7745a73a7be9</t>
+    <t>urn:pearson:educationalgoal:826856dd-8add-4672-a250-4809ccaaeef5</t>
   </si>
   <si>
     <t>Explain and discuss understanding of what has been read through formal presentations.</t>
@@ -942,7 +942,7 @@
     <t>ELA.SL.343</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:a01268b1-5406-466e-b185-a8b2c46ee628</t>
+    <t>urn:pearson:educationalgoal:21c3c88e-f591-4efe-99d4-2343a96a2498</t>
   </si>
   <si>
     <t>Explain how a speaker's claim is supported by evidence.</t>
@@ -951,7 +951,7 @@
     <t>ELA.SL.344</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:e23b04b1-8ed2-4cea-b659-d155cacbbf84</t>
+    <t>urn:pearson:educationalgoal:9170cdcc-0f8c-4ba1-96ab-b9c5eafbbe94</t>
   </si>
   <si>
     <t>Explain how a speaker's claim is supported by reasons.</t>
@@ -960,7 +960,7 @@
     <t>ELA.SL.345</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:2e7eba96-f1b0-46a6-9235-1918f769c81b</t>
+    <t>urn:pearson:educationalgoal:d2ed623b-7bcd-4af7-88e9-701aa0cfe515</t>
   </si>
   <si>
     <t>Explain how body language in oral texts contributes to meaning.</t>
@@ -969,7 +969,7 @@
     <t>ELA.SL.346</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:edbd0c58-06c6-4c3c-925a-540ba20184d6</t>
+    <t>urn:pearson:educationalgoal:fb5e7f0d-a4cc-43f9-b352-43e4f0b56f36</t>
   </si>
   <si>
     <t>Explain how ideas and information in oral texts contribute to meaning.</t>
@@ -978,7 +978,7 @@
     <t>ELA.SL.347</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:dd7ad25f-177c-44a7-a829-77e4f11075b1</t>
+    <t>urn:pearson:educationalgoal:35e62596-c572-440c-9810-248c4517f8ee</t>
   </si>
   <si>
     <t>A formal style is established and maintained in explanatory pieces that describe technical processes.</t>
@@ -987,7 +987,7 @@
     <t>ELA.WR.18</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:9f408f55-1330-48fe-8d30-3ff2b7b5ea0c</t>
+    <t>urn:pearson:educationalgoal:54043082-0923-4404-a684-34ccd9bd74b4</t>
   </si>
   <si>
     <t>A formal style is established and maintained in explanatory pieces.</t>
@@ -996,7 +996,7 @@
     <t>ELA.WR.19</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:7f0b5b59-abc3-42ac-b63c-37706eac63bd</t>
+    <t>urn:pearson:educationalgoal:a0897d4a-9fe6-4be1-8c0f-ab50b8b84e7b</t>
   </si>
   <si>
     <t>A formal style is established and maintained in informative pieces that describe historical events.</t>
@@ -1005,7 +1005,7 @@
     <t>ELA.WR.20</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:b9ee416e-9bd4-483f-8873-32c11ac5a86e</t>
+    <t>urn:pearson:educationalgoal:5c54b078-eab9-4bb4-bfb9-b987fd7032ef</t>
   </si>
   <si>
     <t>A formal style is established and maintained in informative pieces that describe scientific procedures or experiments.</t>
@@ -1014,7 +1014,7 @@
     <t>ELA.WR.21</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:4c5ac2a2-e408-481a-ae78-28475a9f8686</t>
+    <t>urn:pearson:educationalgoal:b40a9c55-a449-4a31-9e82-eea4bc4ea6f6</t>
   </si>
   <si>
     <t>A formal style is established and maintained in informative pieces that describe technical processes.</t>
@@ -1023,7 +1023,7 @@
     <t>ELA.WR.22</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:4b61410a-aa94-4482-9cbd-dadf0fbe4a61</t>
+    <t>urn:pearson:educationalgoal:a39dd270-7344-4837-80b7-6b8c22e64718</t>
   </si>
   <si>
     <t>A formal style is established and maintained in written informative pieces.</t>
@@ -1032,7 +1032,7 @@
     <t>ELA.WR.23</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:9ece52f4-f87c-47eb-8016-b2b7df7349f5</t>
+    <t>urn:pearson:educationalgoal:16b1a0b2-fe0e-48b2-a779-53a5941946d7</t>
   </si>
   <si>
     <t>A purpose or controlling idea is clearly stated in written explanatory pieces.</t>
@@ -1041,7 +1041,7 @@
     <t>ELA.WR.24</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:ab4b6138-d720-4312-ad1f-411e7da24d54</t>
+    <t>urn:pearson:educationalgoal:a2576c3a-5f33-45d0-a30d-de5bb1830262</t>
   </si>
   <si>
     <t>A purpose or controlling idea is clearly stated in written informative pieces.</t>
@@ -1050,7 +1050,7 @@
     <t>ELA.WR.25</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:1534ef78-e072-4d9a-836e-fedd52d526ef</t>
+    <t>urn:pearson:educationalgoal:c91b044a-dbda-49c1-887a-570e7d20ce2a</t>
   </si>
   <si>
     <t>A short sequence of events is recounted in written narrative pieces.</t>
@@ -1059,7 +1059,7 @@
     <t>ELA.WR.26</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:45e4801c-503a-4872-aefe-a958e296847b</t>
+    <t>urn:pearson:educationalgoal:c7c0988d-a8dc-4d15-8749-e5c02ca4f2f5</t>
   </si>
   <si>
     <t>A topic is clearly introduced in written explanatory pieces.</t>
@@ -1068,7 +1068,7 @@
     <t>ELA.WR.27</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:67916138-bb8b-48ba-b380-832fee2c1770</t>
+    <t>urn:pearson:educationalgoal:33a843ae-cd2b-4808-8e7b-76d5c92330c2</t>
   </si>
 </sst>
 </file>
@@ -3248,7 +3248,7 @@
         <v>35</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>342</v>
